--- a/小程序自行计算的特征.xlsx
+++ b/小程序自行计算的特征.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\学习\DMD\汇报ppt\组会文献分享-基因型和患者表型\streamlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C52D26E-06A7-400A-A0B4-C3ED4CFBDB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229F2A83-418D-4244-B486-C9CF0E05FD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第一张表" sheetId="1" r:id="rId1"/>
@@ -28,30 +28,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>exon</t>
+    <t>start</t>
   </si>
   <si>
-    <t>c.startExon</t>
+    <t>end</t>
   </si>
   <si>
-    <t>c.endExon</t>
-  </si>
-  <si>
-    <t>顺序，第几个结构域（Domain_order结构域顺序）</t>
+    <t>Domain_order</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c.起</t>
+    <t>Start_Position</t>
   </si>
   <si>
-    <t>c.止</t>
+    <t>End_Position</t>
+  </si>
+  <si>
+    <t>exon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,36 +68,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Microsoft YaHei"/>
+      <name val="Arial Unicode MS"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -104,37 +90,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -417,894 +379,894 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="J78" sqref="J78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.58203125" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.58203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="33">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B3" s="1">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>94</v>
+      </c>
+      <c r="C4" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>187</v>
+      </c>
+      <c r="C5" s="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>265</v>
+      </c>
+      <c r="C6" s="1">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>358</v>
+      </c>
+      <c r="C7" s="1">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>531</v>
+      </c>
+      <c r="C8" s="1">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>650</v>
+      </c>
+      <c r="C9" s="1">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>832</v>
+      </c>
+      <c r="C10" s="1">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>961</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1150</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1332</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1483</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1603</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1705</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1813</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1993</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2169</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2293</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2381</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2622</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2623</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2804</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2950</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3163</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3277</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3433</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3604</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3786</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3787</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3921</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3922</v>
+      </c>
+      <c r="C30" s="1">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4072</v>
+      </c>
+      <c r="C31" s="1">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="B32" s="1">
+        <v>4234</v>
+      </c>
+      <c r="C32" s="1">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="C3" s="3">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>94</v>
-      </c>
-      <c r="C4" s="3">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>187</v>
-      </c>
-      <c r="C5" s="3">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>265</v>
-      </c>
-      <c r="C6" s="3">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>358</v>
-      </c>
-      <c r="C7" s="3">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>531</v>
-      </c>
-      <c r="C8" s="3">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.5">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>650</v>
-      </c>
-      <c r="C9" s="3">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.5">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>832</v>
-      </c>
-      <c r="C10" s="3">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.5">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>961</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.5">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1150</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.5">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1332</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16.5">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1483</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.5">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1603</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.5">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1705</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1813</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3">
-        <v>1993</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.5">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3">
-        <v>2169</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2292</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3">
-        <v>2293</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2380</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3">
-        <v>2381</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2622</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.5">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3">
-        <v>2623</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2803</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16.5">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3">
-        <v>2804</v>
-      </c>
-      <c r="C23" s="3">
-        <v>2949</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16.5">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3">
-        <v>2950</v>
-      </c>
-      <c r="C24" s="3">
-        <v>3162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="16.5">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3">
-        <v>3163</v>
-      </c>
-      <c r="C25" s="3">
-        <v>3276</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.5">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3">
-        <v>3277</v>
-      </c>
-      <c r="C26" s="3">
-        <v>3432</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.5">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3">
-        <v>3433</v>
-      </c>
-      <c r="C27" s="3">
-        <v>3603</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16.5">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3">
-        <v>3604</v>
-      </c>
-      <c r="C28" s="3">
-        <v>3786</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.5">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3">
-        <v>3787</v>
-      </c>
-      <c r="C29" s="3">
-        <v>3921</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.5">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3">
-        <v>3922</v>
-      </c>
-      <c r="C30" s="3">
-        <v>4071</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.5">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3">
-        <v>4072</v>
-      </c>
-      <c r="C31" s="3">
-        <v>4233</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.5">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3">
-        <v>4234</v>
-      </c>
-      <c r="C32" s="3">
-        <v>4344</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16.5">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3">
+      <c r="B33" s="1">
         <v>4345</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="1">
         <v>4518</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16.5">
-      <c r="A34" s="2">
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="1">
         <v>4519</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="1">
         <v>4674</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16.5">
-      <c r="A35" s="2">
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="1">
         <v>4675</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="1">
         <v>4845</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16.5">
-      <c r="A36" s="2">
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="1">
         <v>4846</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="1">
         <v>5025</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16.5">
-      <c r="A37" s="2">
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="1">
         <v>5026</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="1">
         <v>5154</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="16.5">
-      <c r="A38" s="2">
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="1">
         <v>5155</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="1">
         <v>5325</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="16.5">
-      <c r="A39" s="2">
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="1">
         <v>5326</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="1">
         <v>5448</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="16.5">
-      <c r="A40" s="2">
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="1">
         <v>5449</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="1">
         <v>5586</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16.5">
-      <c r="A41" s="2">
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="1">
         <v>5587</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="1">
         <v>5739</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="16.5">
-      <c r="A42" s="2">
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="1">
         <v>5740</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="1">
         <v>5922</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="16.5">
-      <c r="A43" s="2">
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="1">
         <v>5923</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="1">
         <v>6117</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16.5">
-      <c r="A44" s="2">
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="1">
         <v>6118</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="1">
         <v>6290</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="16.5">
-      <c r="A45" s="2">
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="1">
         <v>6291</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="1">
         <v>6438</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="16.5">
-      <c r="A46" s="2">
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="1">
         <v>6439</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="1">
         <v>6614</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="16.5">
-      <c r="A47" s="2">
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="1">
         <v>6615</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="1">
         <v>6762</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="16.5">
-      <c r="A48" s="2">
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="1">
         <v>6763</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="1">
         <v>6912</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="16.5">
-      <c r="A49" s="2">
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="1">
         <v>6913</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="1">
         <v>7098</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="16.5">
-      <c r="A50" s="2">
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="1">
         <v>7099</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="1">
         <v>7200</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="16.5">
-      <c r="A51" s="2">
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="1">
         <v>7201</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="1">
         <v>7309</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="16.5">
-      <c r="A52" s="2">
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="1">
         <v>7310</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="1">
         <v>7542</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="16.5">
-      <c r="A53" s="2">
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="1">
         <v>7543</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="1">
         <v>7660</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="16.5">
-      <c r="A54" s="2">
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="1">
         <v>7661</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="1">
         <v>7872</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="16.5">
-      <c r="A55" s="2">
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="1">
         <v>7873</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="1">
         <v>8027</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="16.5">
-      <c r="A56" s="2">
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="1">
         <v>8028</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="1">
         <v>8217</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="16.5">
-      <c r="A57" s="2">
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="1">
         <v>8218</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="1">
         <v>8390</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="16.5">
-      <c r="A58" s="2">
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="1">
         <v>8391</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="1">
         <v>8547</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="16.5">
-      <c r="A59" s="2">
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="1">
         <v>8548</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="1">
         <v>8668</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="16.5">
-      <c r="A60" s="2">
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="1">
         <v>8669</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="1">
         <v>8937</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="16.5">
-      <c r="A61" s="2">
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="1">
         <v>8938</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="1">
         <v>9084</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="16.5">
-      <c r="A62" s="2">
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="1">
         <v>9085</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="1">
         <v>9163</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="16.5">
-      <c r="A63" s="2">
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="1">
         <v>9164</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="1">
         <v>9224</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="16.5">
-      <c r="A64" s="2">
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="1">
         <v>9225</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="1">
         <v>9286</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="16.5">
-      <c r="A65" s="2">
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="1">
         <v>9287</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="1">
         <v>9361</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="16.5">
-      <c r="A66" s="2">
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="1">
         <v>9362</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="1">
         <v>9563</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="16.5">
-      <c r="A67" s="2">
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="1">
         <v>9564</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="1">
         <v>9649</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="16.5">
-      <c r="A68" s="2">
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="1">
         <v>9650</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="1">
         <v>9807</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="16.5">
-      <c r="A69" s="2">
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="1">
         <v>9808</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="1">
         <v>9974</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="16.5">
-      <c r="A70" s="2">
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="1">
         <v>9975</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="1">
         <v>10086</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="16.5">
-      <c r="A71" s="2">
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="1">
         <v>10087</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="1">
         <v>10223</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="16.5">
-      <c r="A72" s="2">
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="1">
         <v>10224</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="1">
         <v>10262</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="16.5">
-      <c r="A73" s="2">
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="1">
         <v>10263</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="1">
         <v>10328</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="16.5">
-      <c r="A74" s="2">
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="1">
         <v>10329</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="1">
         <v>10394</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="16.5">
-      <c r="A75" s="2">
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="1">
         <v>10395</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="1">
         <v>10553</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="16.5">
-      <c r="A76" s="2">
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="1">
         <v>10554</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="1">
         <v>10797</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="16.5">
-      <c r="A77" s="2">
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="1">
         <v>10798</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="1">
         <v>10921</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="16.5">
-      <c r="A78" s="2">
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="1">
         <v>10922</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="1">
         <v>11014</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="16.5">
-      <c r="A79" s="2">
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="1">
         <v>11015</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="1">
         <v>11046</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="16.5">
-      <c r="A80" s="2">
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="1">
         <v>11047</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="1">
         <v>100000</v>
       </c>
     </row>
@@ -1318,24 +1280,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281A897E-C63E-4ADB-B9EC-932FA7B783BB}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="44.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3">
